--- a/Excel-XLSX/UN-ECU.xlsx
+++ b/Excel-XLSX/UN-ECU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1490">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>6W2EeY</t>
+    <t>hH2feK</t>
   </si>
   <si>
     <t>1972</t>
@@ -4389,15 +4389,15 @@
     <t>1101</t>
   </si>
   <si>
+    <t>19710</t>
+  </si>
+  <si>
+    <t>3626</t>
+  </si>
+  <si>
     <t>1102</t>
   </si>
   <si>
-    <t>17993</t>
-  </si>
-  <si>
-    <t>4606</t>
-  </si>
-  <si>
     <t>1103</t>
   </si>
   <si>
@@ -4473,22 +4473,19 @@
     <t>1127</t>
   </si>
   <si>
+    <t>2493</t>
+  </si>
+  <si>
+    <t>3188</t>
+  </si>
+  <si>
+    <t>439097</t>
+  </si>
+  <si>
     <t>1128</t>
   </si>
   <si>
-    <t>2295</t>
-  </si>
-  <si>
-    <t>3496</t>
-  </si>
-  <si>
-    <t>438987</t>
-  </si>
-  <si>
     <t>1129</t>
-  </si>
-  <si>
-    <t>1130</t>
   </si>
 </sst>
 </file>
@@ -4873,7 +4870,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1131"/>
+  <dimension ref="A1:V1130"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -79042,7 +79039,7 @@
         <v>30</v>
       </c>
       <c r="N1091" s="2" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="O1091" s="2" t="s">
         <v>48</v>
@@ -79181,7 +79178,7 @@
         <v>71</v>
       </c>
       <c r="O1093" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="P1093" s="2" t="s">
         <v>32</v>
@@ -79290,16 +79287,16 @@
         <v>1445</v>
       </c>
       <c r="F1095" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G1095" s="1" t="s">
-        <v>516</v>
+        <v>1254</v>
       </c>
       <c r="H1095" s="1" t="s">
-        <v>517</v>
+        <v>1255</v>
       </c>
       <c r="I1095" s="1" t="s">
-        <v>517</v>
+        <v>1256</v>
       </c>
       <c r="J1095" s="2" t="s">
         <v>28</v>
@@ -79314,10 +79311,10 @@
         <v>30</v>
       </c>
       <c r="N1095" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O1095" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P1095" s="2" t="s">
         <v>32</v>
@@ -79358,16 +79355,16 @@
         <v>1445</v>
       </c>
       <c r="F1096" s="2" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="G1096" s="1" t="s">
-        <v>1254</v>
+        <v>26</v>
       </c>
       <c r="H1096" s="1" t="s">
-        <v>1255</v>
+        <v>27</v>
       </c>
       <c r="I1096" s="1" t="s">
-        <v>1256</v>
+        <v>27</v>
       </c>
       <c r="J1096" s="2" t="s">
         <v>28</v>
@@ -79385,7 +79382,7 @@
         <v>45</v>
       </c>
       <c r="O1096" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P1096" s="2" t="s">
         <v>32</v>
@@ -79426,16 +79423,16 @@
         <v>1445</v>
       </c>
       <c r="F1097" s="2" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G1097" s="1" t="s">
-        <v>26</v>
+        <v>587</v>
       </c>
       <c r="H1097" s="1" t="s">
-        <v>27</v>
+        <v>588</v>
       </c>
       <c r="I1097" s="1" t="s">
-        <v>27</v>
+        <v>588</v>
       </c>
       <c r="J1097" s="2" t="s">
         <v>28</v>
@@ -79450,7 +79447,7 @@
         <v>30</v>
       </c>
       <c r="N1097" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O1097" s="2" t="s">
         <v>32</v>
@@ -79494,16 +79491,16 @@
         <v>1445</v>
       </c>
       <c r="F1098" s="2" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="G1098" s="1" t="s">
-        <v>587</v>
+        <v>56</v>
       </c>
       <c r="H1098" s="1" t="s">
-        <v>588</v>
+        <v>57</v>
       </c>
       <c r="I1098" s="1" t="s">
-        <v>588</v>
+        <v>57</v>
       </c>
       <c r="J1098" s="2" t="s">
         <v>28</v>
@@ -79518,10 +79515,10 @@
         <v>30</v>
       </c>
       <c r="N1098" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1098" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="O1098" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P1098" s="2" t="s">
         <v>32</v>
@@ -79562,16 +79559,16 @@
         <v>1445</v>
       </c>
       <c r="F1099" s="2" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="G1099" s="1" t="s">
-        <v>56</v>
+        <v>451</v>
       </c>
       <c r="H1099" s="1" t="s">
-        <v>57</v>
+        <v>452</v>
       </c>
       <c r="I1099" s="1" t="s">
-        <v>57</v>
+        <v>452</v>
       </c>
       <c r="J1099" s="2" t="s">
         <v>28</v>
@@ -79586,10 +79583,10 @@
         <v>30</v>
       </c>
       <c r="N1099" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="O1099" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P1099" s="2" t="s">
         <v>32</v>
@@ -79630,16 +79627,16 @@
         <v>1445</v>
       </c>
       <c r="F1100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G1100" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H1100" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I1100" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="J1100" s="2" t="s">
         <v>28</v>
@@ -79654,10 +79651,10 @@
         <v>30</v>
       </c>
       <c r="N1100" s="2" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="O1100" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P1100" s="2" t="s">
         <v>32</v>
@@ -79698,16 +79695,16 @@
         <v>1445</v>
       </c>
       <c r="F1101" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1101" s="1" t="s">
-        <v>454</v>
+        <v>180</v>
       </c>
       <c r="H1101" s="1" t="s">
-        <v>455</v>
+        <v>181</v>
       </c>
       <c r="I1101" s="1" t="s">
-        <v>456</v>
+        <v>181</v>
       </c>
       <c r="J1101" s="2" t="s">
         <v>28</v>
@@ -79722,10 +79719,10 @@
         <v>30</v>
       </c>
       <c r="N1101" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O1101" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P1101" s="2" t="s">
         <v>32</v>
@@ -79766,16 +79763,16 @@
         <v>1445</v>
       </c>
       <c r="F1102" s="2" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="G1102" s="1" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="H1102" s="1" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="I1102" s="1" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="J1102" s="2" t="s">
         <v>28</v>
@@ -79790,10 +79787,10 @@
         <v>30</v>
       </c>
       <c r="N1102" s="2" t="s">
-        <v>54</v>
+        <v>1457</v>
       </c>
       <c r="O1102" s="2" t="s">
-        <v>45</v>
+        <v>1458</v>
       </c>
       <c r="P1102" s="2" t="s">
         <v>32</v>
@@ -79828,22 +79825,22 @@
         <v>22</v>
       </c>
       <c r="D1103" s="2" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="E1103" s="2" t="s">
         <v>1445</v>
       </c>
       <c r="F1103" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G1103" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H1103" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I1103" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J1103" s="2" t="s">
         <v>28</v>
@@ -79858,10 +79855,10 @@
         <v>30</v>
       </c>
       <c r="N1103" s="2" t="s">
-        <v>1458</v>
+        <v>53</v>
       </c>
       <c r="O1103" s="2" t="s">
-        <v>1459</v>
+        <v>203</v>
       </c>
       <c r="P1103" s="2" t="s">
         <v>32</v>
@@ -79902,16 +79899,16 @@
         <v>1445</v>
       </c>
       <c r="F1104" s="2" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="G1104" s="1" t="s">
-        <v>69</v>
+        <v>529</v>
       </c>
       <c r="H1104" s="1" t="s">
-        <v>70</v>
+        <v>530</v>
       </c>
       <c r="I1104" s="1" t="s">
-        <v>70</v>
+        <v>531</v>
       </c>
       <c r="J1104" s="2" t="s">
         <v>28</v>
@@ -79926,10 +79923,10 @@
         <v>30</v>
       </c>
       <c r="N1104" s="2" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="O1104" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P1104" s="2" t="s">
         <v>32</v>
@@ -79970,16 +79967,16 @@
         <v>1445</v>
       </c>
       <c r="F1105" s="2" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="G1105" s="1" t="s">
-        <v>399</v>
+        <v>291</v>
       </c>
       <c r="H1105" s="1" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
       <c r="I1105" s="1" t="s">
-        <v>400</v>
+        <v>293</v>
       </c>
       <c r="J1105" s="2" t="s">
         <v>28</v>
@@ -79994,10 +79991,10 @@
         <v>30</v>
       </c>
       <c r="N1105" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O1105" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="P1105" s="2" t="s">
         <v>32</v>
@@ -80038,16 +80035,16 @@
         <v>1445</v>
       </c>
       <c r="F1106" s="2" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="G1106" s="1" t="s">
-        <v>529</v>
+        <v>330</v>
       </c>
       <c r="H1106" s="1" t="s">
-        <v>530</v>
+        <v>331</v>
       </c>
       <c r="I1106" s="1" t="s">
-        <v>531</v>
+        <v>332</v>
       </c>
       <c r="J1106" s="2" t="s">
         <v>28</v>
@@ -80062,7 +80059,7 @@
         <v>30</v>
       </c>
       <c r="N1106" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="O1106" s="2" t="s">
         <v>45</v>
@@ -80106,16 +80103,16 @@
         <v>1445</v>
       </c>
       <c r="F1107" s="2" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="G1107" s="1" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="H1107" s="1" t="s">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="I1107" s="1" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="J1107" s="2" t="s">
         <v>28</v>
@@ -80130,10 +80127,10 @@
         <v>30</v>
       </c>
       <c r="N1107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1107" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="O1107" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="P1107" s="2" t="s">
         <v>32</v>
@@ -80174,16 +80171,16 @@
         <v>1445</v>
       </c>
       <c r="F1108" s="2" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="G1108" s="1" t="s">
-        <v>330</v>
+        <v>97</v>
       </c>
       <c r="H1108" s="1" t="s">
-        <v>331</v>
+        <v>98</v>
       </c>
       <c r="I1108" s="1" t="s">
-        <v>332</v>
+        <v>98</v>
       </c>
       <c r="J1108" s="2" t="s">
         <v>28</v>
@@ -80198,10 +80195,10 @@
         <v>30</v>
       </c>
       <c r="N1108" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="O1108" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="P1108" s="2" t="s">
         <v>32</v>
@@ -80242,16 +80239,16 @@
         <v>1445</v>
       </c>
       <c r="F1109" s="2" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="G1109" s="1" t="s">
-        <v>471</v>
+        <v>260</v>
       </c>
       <c r="H1109" s="1" t="s">
-        <v>472</v>
+        <v>261</v>
       </c>
       <c r="I1109" s="1" t="s">
-        <v>473</v>
+        <v>261</v>
       </c>
       <c r="J1109" s="2" t="s">
         <v>28</v>
@@ -80266,10 +80263,10 @@
         <v>30</v>
       </c>
       <c r="N1109" s="2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="O1109" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P1109" s="2" t="s">
         <v>32</v>
@@ -80310,16 +80307,16 @@
         <v>1445</v>
       </c>
       <c r="F1110" s="2" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G1110" s="1" t="s">
-        <v>207</v>
+        <v>482</v>
       </c>
       <c r="H1110" s="1" t="s">
-        <v>208</v>
+        <v>483</v>
       </c>
       <c r="I1110" s="1" t="s">
-        <v>208</v>
+        <v>484</v>
       </c>
       <c r="J1110" s="2" t="s">
         <v>28</v>
@@ -80334,10 +80331,10 @@
         <v>30</v>
       </c>
       <c r="N1110" s="2" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="O1110" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="P1110" s="2" t="s">
         <v>32</v>
@@ -80378,16 +80375,16 @@
         <v>1445</v>
       </c>
       <c r="F1111" s="2" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="G1111" s="1" t="s">
-        <v>97</v>
+        <v>264</v>
       </c>
       <c r="H1111" s="1" t="s">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="I1111" s="1" t="s">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="J1111" s="2" t="s">
         <v>28</v>
@@ -80402,10 +80399,10 @@
         <v>30</v>
       </c>
       <c r="N1111" s="2" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="O1111" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P1111" s="2" t="s">
         <v>32</v>
@@ -80446,16 +80443,16 @@
         <v>1445</v>
       </c>
       <c r="F1112" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1112" s="1" t="s">
-        <v>260</v>
+        <v>627</v>
       </c>
       <c r="H1112" s="1" t="s">
-        <v>261</v>
+        <v>628</v>
       </c>
       <c r="I1112" s="1" t="s">
-        <v>261</v>
+        <v>628</v>
       </c>
       <c r="J1112" s="2" t="s">
         <v>28</v>
@@ -80470,7 +80467,7 @@
         <v>30</v>
       </c>
       <c r="N1112" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="O1112" s="2" t="s">
         <v>32</v>
@@ -80514,16 +80511,16 @@
         <v>1445</v>
       </c>
       <c r="F1113" s="2" t="s">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="G1113" s="1" t="s">
-        <v>482</v>
+        <v>140</v>
       </c>
       <c r="H1113" s="1" t="s">
-        <v>483</v>
+        <v>141</v>
       </c>
       <c r="I1113" s="1" t="s">
-        <v>484</v>
+        <v>141</v>
       </c>
       <c r="J1113" s="2" t="s">
         <v>28</v>
@@ -80538,10 +80535,10 @@
         <v>30</v>
       </c>
       <c r="N1113" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="O1113" s="2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="P1113" s="2" t="s">
         <v>32</v>
@@ -80582,16 +80579,16 @@
         <v>1445</v>
       </c>
       <c r="F1114" s="2" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="G1114" s="1" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="H1114" s="1" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="I1114" s="1" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="J1114" s="2" t="s">
         <v>28</v>
@@ -80606,10 +80603,10 @@
         <v>30</v>
       </c>
       <c r="N1114" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="O1114" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P1114" s="2" t="s">
         <v>32</v>
@@ -80650,16 +80647,16 @@
         <v>1445</v>
       </c>
       <c r="F1115" s="2" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="G1115" s="1" t="s">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="H1115" s="1" t="s">
-        <v>141</v>
+        <v>268</v>
       </c>
       <c r="I1115" s="1" t="s">
-        <v>141</v>
+        <v>268</v>
       </c>
       <c r="J1115" s="2" t="s">
         <v>28</v>
@@ -80674,7 +80671,7 @@
         <v>30</v>
       </c>
       <c r="N1115" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O1115" s="2" t="s">
         <v>32</v>
@@ -80718,16 +80715,16 @@
         <v>1445</v>
       </c>
       <c r="F1116" s="2" t="s">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="G1116" s="1" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="H1116" s="1" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="I1116" s="1" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="J1116" s="2" t="s">
         <v>28</v>
@@ -80742,10 +80739,10 @@
         <v>30</v>
       </c>
       <c r="N1116" s="2" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="O1116" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P1116" s="2" t="s">
         <v>32</v>
@@ -80786,16 +80783,16 @@
         <v>1445</v>
       </c>
       <c r="F1117" s="2" t="s">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c r="G1117" s="1" t="s">
-        <v>267</v>
+        <v>147</v>
       </c>
       <c r="H1117" s="1" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="I1117" s="1" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="J1117" s="2" t="s">
         <v>28</v>
@@ -80810,10 +80807,10 @@
         <v>30</v>
       </c>
       <c r="N1117" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="O1117" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="P1117" s="2" t="s">
         <v>32</v>
@@ -80854,16 +80851,16 @@
         <v>1445</v>
       </c>
       <c r="F1118" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="G1118" s="1" t="s">
-        <v>144</v>
+        <v>317</v>
       </c>
       <c r="H1118" s="1" t="s">
-        <v>145</v>
+        <v>318</v>
       </c>
       <c r="I1118" s="1" t="s">
-        <v>145</v>
+        <v>318</v>
       </c>
       <c r="J1118" s="2" t="s">
         <v>28</v>
@@ -80878,10 +80875,10 @@
         <v>30</v>
       </c>
       <c r="N1118" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1118" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="O1118" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P1118" s="2" t="s">
         <v>32</v>
@@ -80922,16 +80919,16 @@
         <v>1445</v>
       </c>
       <c r="F1119" s="2" t="s">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="G1119" s="1" t="s">
-        <v>147</v>
+        <v>1157</v>
       </c>
       <c r="H1119" s="1" t="s">
-        <v>148</v>
+        <v>1158</v>
       </c>
       <c r="I1119" s="1" t="s">
-        <v>148</v>
+        <v>1158</v>
       </c>
       <c r="J1119" s="2" t="s">
         <v>28</v>
@@ -80946,10 +80943,10 @@
         <v>30</v>
       </c>
       <c r="N1119" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="O1119" s="2" t="s">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="P1119" s="2" t="s">
         <v>32</v>
@@ -80990,16 +80987,16 @@
         <v>1445</v>
       </c>
       <c r="F1120" s="2" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="G1120" s="1" t="s">
-        <v>317</v>
+        <v>151</v>
       </c>
       <c r="H1120" s="1" t="s">
-        <v>318</v>
+        <v>152</v>
       </c>
       <c r="I1120" s="1" t="s">
-        <v>318</v>
+        <v>153</v>
       </c>
       <c r="J1120" s="2" t="s">
         <v>28</v>
@@ -81014,10 +81011,10 @@
         <v>30</v>
       </c>
       <c r="N1120" s="2" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="O1120" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P1120" s="2" t="s">
         <v>32</v>
@@ -81058,16 +81055,16 @@
         <v>1445</v>
       </c>
       <c r="F1121" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G1121" s="1" t="s">
-        <v>1157</v>
+        <v>559</v>
       </c>
       <c r="H1121" s="1" t="s">
-        <v>1158</v>
+        <v>560</v>
       </c>
       <c r="I1121" s="1" t="s">
-        <v>1158</v>
+        <v>560</v>
       </c>
       <c r="J1121" s="2" t="s">
         <v>28</v>
@@ -81126,16 +81123,16 @@
         <v>1445</v>
       </c>
       <c r="F1122" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G1122" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H1122" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I1122" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="J1122" s="2" t="s">
         <v>28</v>
@@ -81150,7 +81147,7 @@
         <v>30</v>
       </c>
       <c r="N1122" s="2" t="s">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="O1122" s="2" t="s">
         <v>32</v>
@@ -81194,16 +81191,16 @@
         <v>1445</v>
       </c>
       <c r="F1123" s="2" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G1123" s="1" t="s">
-        <v>559</v>
+        <v>1033</v>
       </c>
       <c r="H1123" s="1" t="s">
-        <v>560</v>
+        <v>1034</v>
       </c>
       <c r="I1123" s="1" t="s">
-        <v>560</v>
+        <v>1034</v>
       </c>
       <c r="J1123" s="2" t="s">
         <v>28</v>
@@ -81262,16 +81259,16 @@
         <v>1445</v>
       </c>
       <c r="F1124" s="2" t="s">
-        <v>159</v>
+        <v>350</v>
       </c>
       <c r="G1124" s="1" t="s">
-        <v>160</v>
+        <v>1369</v>
       </c>
       <c r="H1124" s="1" t="s">
-        <v>161</v>
+        <v>1370</v>
       </c>
       <c r="I1124" s="1" t="s">
-        <v>161</v>
+        <v>1370</v>
       </c>
       <c r="J1124" s="2" t="s">
         <v>28</v>
@@ -81286,10 +81283,10 @@
         <v>30</v>
       </c>
       <c r="N1124" s="2" t="s">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="O1124" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P1124" s="2" t="s">
         <v>32</v>
@@ -81330,16 +81327,16 @@
         <v>1445</v>
       </c>
       <c r="F1125" s="2" t="s">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="G1125" s="1" t="s">
-        <v>1369</v>
+        <v>36</v>
       </c>
       <c r="H1125" s="1" t="s">
-        <v>1370</v>
+        <v>37</v>
       </c>
       <c r="I1125" s="1" t="s">
-        <v>1370</v>
+        <v>38</v>
       </c>
       <c r="J1125" s="2" t="s">
         <v>28</v>
@@ -81354,10 +81351,10 @@
         <v>30</v>
       </c>
       <c r="N1125" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1125" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="O1125" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P1125" s="2" t="s">
         <v>32</v>
@@ -81398,16 +81395,16 @@
         <v>1445</v>
       </c>
       <c r="F1126" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G1126" s="1" t="s">
-        <v>36</v>
+        <v>299</v>
       </c>
       <c r="H1126" s="1" t="s">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="I1126" s="1" t="s">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="J1126" s="2" t="s">
         <v>28</v>
@@ -81422,10 +81419,10 @@
         <v>30</v>
       </c>
       <c r="N1126" s="2" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="O1126" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P1126" s="2" t="s">
         <v>32</v>
@@ -81466,16 +81463,16 @@
         <v>1445</v>
       </c>
       <c r="F1127" s="2" t="s">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="G1127" s="1" t="s">
-        <v>299</v>
+        <v>570</v>
       </c>
       <c r="H1127" s="1" t="s">
-        <v>300</v>
+        <v>571</v>
       </c>
       <c r="I1127" s="1" t="s">
-        <v>300</v>
+        <v>571</v>
       </c>
       <c r="J1127" s="2" t="s">
         <v>28</v>
@@ -81490,10 +81487,10 @@
         <v>30</v>
       </c>
       <c r="N1127" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O1127" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P1127" s="2" t="s">
         <v>32</v>
@@ -81534,16 +81531,16 @@
         <v>1445</v>
       </c>
       <c r="F1128" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G1128" s="1" t="s">
-        <v>570</v>
+        <v>429</v>
       </c>
       <c r="H1128" s="1" t="s">
-        <v>571</v>
+        <v>430</v>
       </c>
       <c r="I1128" s="1" t="s">
-        <v>571</v>
+        <v>430</v>
       </c>
       <c r="J1128" s="2" t="s">
         <v>28</v>
@@ -81558,10 +81555,10 @@
         <v>30</v>
       </c>
       <c r="N1128" s="2" t="s">
-        <v>45</v>
+        <v>1485</v>
       </c>
       <c r="O1128" s="2" t="s">
-        <v>32</v>
+        <v>1486</v>
       </c>
       <c r="P1128" s="2" t="s">
         <v>32</v>
@@ -81578,8 +81575,8 @@
       <c r="T1128" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U1128" s="1" t="s">
-        <v>33</v>
+      <c r="U1128" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="V1128" s="2" t="s">
         <v>32</v>
@@ -81596,22 +81593,22 @@
         <v>22</v>
       </c>
       <c r="D1129" s="2" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="E1129" s="2" t="s">
         <v>1445</v>
       </c>
       <c r="F1129" s="2" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="G1129" s="1" t="s">
-        <v>429</v>
+        <v>1046</v>
       </c>
       <c r="H1129" s="1" t="s">
-        <v>430</v>
+        <v>1047</v>
       </c>
       <c r="I1129" s="1" t="s">
-        <v>430</v>
+        <v>1047</v>
       </c>
       <c r="J1129" s="2" t="s">
         <v>28</v>
@@ -81626,10 +81623,10 @@
         <v>30</v>
       </c>
       <c r="N1129" s="2" t="s">
-        <v>1486</v>
+        <v>106</v>
       </c>
       <c r="O1129" s="2" t="s">
-        <v>1487</v>
+        <v>63</v>
       </c>
       <c r="P1129" s="2" t="s">
         <v>32</v>
@@ -81646,8 +81643,8 @@
       <c r="T1129" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U1129" s="2" t="s">
-        <v>1488</v>
+      <c r="U1129" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="V1129" s="2" t="s">
         <v>32</v>
@@ -81670,16 +81667,16 @@
         <v>1445</v>
       </c>
       <c r="F1130" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G1130" s="1" t="s">
-        <v>1046</v>
+        <v>666</v>
       </c>
       <c r="H1130" s="1" t="s">
-        <v>1047</v>
+        <v>667</v>
       </c>
       <c r="I1130" s="1" t="s">
-        <v>1047</v>
+        <v>668</v>
       </c>
       <c r="J1130" s="2" t="s">
         <v>28</v>
@@ -81694,10 +81691,10 @@
         <v>30</v>
       </c>
       <c r="N1130" s="2" t="s">
-        <v>221</v>
+        <v>48</v>
       </c>
       <c r="O1130" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="P1130" s="2" t="s">
         <v>32</v>
@@ -81718,74 +81715,6 @@
         <v>33</v>
       </c>
       <c r="V1130" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1131">
-      <c r="A1131" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1131" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1131" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1131" s="2" t="s">
-        <v>1490</v>
-      </c>
-      <c r="E1131" s="2" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F1131" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G1131" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="H1131" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="I1131" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="J1131" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1131" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1131" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1131" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1131" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1131" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1131" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1131" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1131" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1131" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1131" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1131" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1131" s="2" t="s">
         <v>32</v>
       </c>
     </row>
